--- a/APLS.xlsx
+++ b/APLS.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE44554-2A3C-4DDF-A5AD-6B89E5B9201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1200A0-1CA4-458F-9ABC-C73A434F6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="6675" windowWidth="15915" windowHeight="8400" activeTab="1" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
+    <workbookView xWindow="780" yWindow="315" windowWidth="34725" windowHeight="20565" activeTab="1" xr2:uid="{C5D46298-A5E7-4521-8F34-4B6B3EF66A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Empaveli" sheetId="2" r:id="rId2"/>
-    <sheet name="Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Model" sheetId="3" r:id="rId2"/>
+    <sheet name="Empaveli" sheetId="2" r:id="rId3"/>
+    <sheet name="Syfovre" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martin Shkreli</author>
+  </authors>
+  <commentList>
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{4A806E08-7D69-4C6C-B6F3-F795205259D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Shkreli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6000 vials shipped in March</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>Price</t>
   </si>
@@ -81,9 +116,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>11/26/22 PDUFA</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -129,9 +161,6 @@
     <t>Approval</t>
   </si>
   <si>
-    <t>Injectable</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
@@ -150,9 +179,6 @@
     <t>Empaveli, Aspaveli; fka APL-2</t>
   </si>
   <si>
-    <t>intravitreal; subcutaneous twice weekly? 1080mg</t>
-  </si>
-  <si>
     <t>Phase III "PEGASUS" n=80 PNH - NCT03050549</t>
   </si>
   <si>
@@ -205,16 +231,196 @@
   </si>
   <si>
     <t>Reduced extrafoveal GA growth by 17% with monthly and 23% q2m.</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>PNH</t>
+  </si>
+  <si>
+    <t>Syfovre</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>CEO: Cedric Francois</t>
+  </si>
+  <si>
+    <t>CCO: Adam Townsend</t>
+  </si>
+  <si>
+    <t>CNS active</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Preclinical</t>
+  </si>
+  <si>
+    <t>siRNA</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>subcutaneous infusion</t>
+  </si>
+  <si>
+    <t>subcutaneous twice weekly 1080mg</t>
+  </si>
+  <si>
+    <t>Administraiton</t>
+  </si>
+  <si>
+    <t>Geographic atrophy</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>EU, Canada, Australia, UK, Switzerland decisions expected 1H2024</t>
+  </si>
+  <si>
+    <t>Phase II "MERIDIAN" ALS</t>
+  </si>
+  <si>
+    <t>3/6/23: inducements</t>
+  </si>
+  <si>
+    <t>4/6/23: inducements</t>
+  </si>
+  <si>
+    <t>4/27/23: Q123 call date</t>
+  </si>
+  <si>
+    <t>4/17/23: endorsement for GA awareness</t>
+  </si>
+  <si>
+    <t>CMO: Caroline Baumal</t>
+  </si>
+  <si>
+    <t>4/21/23: Validation of Canadian, Australian, UK, Switzerland GA MAAs</t>
+  </si>
+  <si>
+    <t>intravitreal qm or q2m</t>
+  </si>
+  <si>
+    <t>4/23/23: ARVO presentation of DERBY and OAKS</t>
+  </si>
+  <si>
+    <t>5.6 letters better than sham in extrafoveal lesions</t>
+  </si>
+  <si>
+    <t>4/24/23: MERIDIAN ALS study discontinued</t>
+  </si>
+  <si>
+    <t>5/3/23: investor conference</t>
+  </si>
+  <si>
+    <t>5/4/23: Q123 results</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -234,6 +440,33 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -344,11 +577,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -366,16 +598,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -384,17 +613,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{90304C19-BC5E-45B0-9B0A-F4944B7AD6FE}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -404,6 +648,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B88DD12-4EBA-E02A-D303-580D788DAD0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9492343" y="48986"/>
+          <a:ext cx="0" cy="7532914"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AF34C7-A319-41F5-A08D-B8D796272E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15027729" y="0"/>
+          <a:ext cx="0" cy="7859485"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,210 +1052,1184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6234D1C3-C4BE-43F2-B9DB-E2CAB01F5DB4}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>28</v>
+      <c r="H2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>57</v>
+        <v>88.86</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="25">
         <v>44330</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="17"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="16"/>
       <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="8">
-        <v>106.521818</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>8</v>
+      <c r="L3" s="7">
+        <v>116.457008</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14">
+        <v>44958</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="16"/>
       <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f>L2*L3</f>
-        <v>6071.7436259999995</v>
+        <v>10348.36973088</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="17"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
       <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="8">
-        <f>633.456+331.842</f>
-        <v>965.298</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>8</v>
+      <c r="L5" s="7">
+        <f>765.083+1.275</f>
+        <v>766.35799999999995</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
       <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8">
-        <v>189.16800000000001</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>8</v>
+      <c r="L6" s="7">
+        <v>92.808999999999997</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
       <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f>+L4-L5+L6</f>
-        <v>5295.6136259999994</v>
+        <v>9674.8207308799992</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2486.6379999999999</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10">
+        <v>2009</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K11" t="s">
-        <v>19</v>
+      <c r="G11" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="G16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="26" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="Empaveli!A1" display="Empaveli" xr:uid="{F9D78289-C296-42AB-B102-2402619FF201}"/>
+    <hyperlink ref="B4" location="Syfovre!A1" display="Syfovre" xr:uid="{F9D78289-C296-42AB-B102-2402619FF201}"/>
+    <hyperlink ref="B3" location="Empaveli!A1" display="Empaveli" xr:uid="{E8576F7F-35CA-4147-9797-8325B39595CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E49619-7317-48A8-BEE2-EDC89FDCB0B3}">
+  <dimension ref="A1:AK39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2">
+        <v>2021</v>
+      </c>
+      <c r="X2">
+        <f>W2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AK2" si="0">X2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="P3" s="19">
+        <f>O3*4</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Q3" s="19">
+        <f>P3*1.4</f>
+        <v>103.03999999999999</v>
+      </c>
+      <c r="R3" s="19">
+        <f>Q3*1.4</f>
+        <v>144.25599999999997</v>
+      </c>
+      <c r="Y3" s="7">
+        <f>SUM(O3:R3)</f>
+        <v>339.29599999999994</v>
+      </c>
+      <c r="Z3" s="7">
+        <f>Y3*2.1</f>
+        <v>712.52159999999992</v>
+      </c>
+      <c r="AA3" s="7">
+        <f>Z3*1.5</f>
+        <v>1068.7823999999998</v>
+      </c>
+      <c r="AB3" s="7">
+        <f>AA3*1.1</f>
+        <v>1175.6606399999998</v>
+      </c>
+      <c r="AC3" s="7">
+        <f>AB3*1.1</f>
+        <v>1293.2267039999999</v>
+      </c>
+      <c r="AD3" s="7">
+        <f>AC3*1.1</f>
+        <v>1422.5493744</v>
+      </c>
+      <c r="AE3" s="7">
+        <f>AD3*1.05</f>
+        <v>1493.6768431200001</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" ref="AF3:AH3" si="1">AE3*1.05</f>
+        <v>1568.3606852760001</v>
+      </c>
+      <c r="AG3" s="7">
+        <f t="shared" si="1"/>
+        <v>1646.7787195398002</v>
+      </c>
+      <c r="AH3" s="7">
+        <f t="shared" si="1"/>
+        <v>1729.1176555167904</v>
+      </c>
+      <c r="AI3" s="7">
+        <f>AH3*0.99</f>
+        <v>1711.8264789616223</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f t="shared" ref="AJ3:AK3" si="2">AI3*0.99</f>
+        <v>1694.7082141720061</v>
+      </c>
+      <c r="AK3" s="7">
+        <f t="shared" si="2"/>
+        <v>1677.761132030286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19">
+        <v>12.1</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="7">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P4" s="7">
+        <f>O4+2</f>
+        <v>22.4</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>P4+2</f>
+        <v>24.4</v>
+      </c>
+      <c r="R4" s="7">
+        <f>Q4+2</f>
+        <v>26.4</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>SUM(O4:R4)</f>
+        <v>93.6</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>Y4*1.01</f>
+        <v>94.536000000000001</v>
+      </c>
+      <c r="AA4" s="7">
+        <f t="shared" ref="AA4:AK4" si="3">Z4*1.01</f>
+        <v>95.481359999999995</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" si="3"/>
+        <v>96.436173599999989</v>
+      </c>
+      <c r="AC4" s="7">
+        <f t="shared" si="3"/>
+        <v>97.40053533599999</v>
+      </c>
+      <c r="AD4" s="7">
+        <f t="shared" si="3"/>
+        <v>98.374540689359989</v>
+      </c>
+      <c r="AE4" s="7">
+        <f t="shared" si="3"/>
+        <v>99.358286096253593</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="3"/>
+        <v>100.35186895721613</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="3"/>
+        <v>101.35538764678829</v>
+      </c>
+      <c r="AH4" s="7">
+        <f t="shared" si="3"/>
+        <v>102.36894152325617</v>
+      </c>
+      <c r="AI4" s="7">
+        <f t="shared" si="3"/>
+        <v>103.39263093848874</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f t="shared" si="3"/>
+        <v>104.42655724787362</v>
+      </c>
+      <c r="AK4" s="7">
+        <f t="shared" si="3"/>
+        <v>105.47082282035235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="7">
+        <v>6.0460000000000003</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>SUM(O5:R5)</f>
+        <v>6.0460000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="20">
+        <f>O4+O5+O3</f>
+        <v>44.845999999999997</v>
+      </c>
+      <c r="P6" s="20">
+        <f>P4+P5+P3</f>
+        <v>96</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" ref="Q6:R6" si="4">Q4+Q5+Q3</f>
+        <v>127.44</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="4"/>
+        <v>170.65599999999998</v>
+      </c>
+      <c r="Y6" s="20">
+        <f>SUM(Y3:Y5)</f>
+        <v>438.94199999999995</v>
+      </c>
+      <c r="Z6" s="20">
+        <f t="shared" ref="Z6:AK6" si="5">SUM(Z3:Z5)</f>
+        <v>807.05759999999987</v>
+      </c>
+      <c r="AA6" s="20">
+        <f t="shared" si="5"/>
+        <v>1164.2637599999998</v>
+      </c>
+      <c r="AB6" s="20">
+        <f t="shared" si="5"/>
+        <v>1272.0968135999999</v>
+      </c>
+      <c r="AC6" s="20">
+        <f t="shared" si="5"/>
+        <v>1390.627239336</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" si="5"/>
+        <v>1520.92391508936</v>
+      </c>
+      <c r="AE6" s="20">
+        <f t="shared" si="5"/>
+        <v>1593.0351292162536</v>
+      </c>
+      <c r="AF6" s="20">
+        <f t="shared" si="5"/>
+        <v>1668.7125542332162</v>
+      </c>
+      <c r="AG6" s="20">
+        <f t="shared" si="5"/>
+        <v>1748.1341071865886</v>
+      </c>
+      <c r="AH6" s="20">
+        <f t="shared" si="5"/>
+        <v>1831.4865970400465</v>
+      </c>
+      <c r="AI6" s="20">
+        <f t="shared" si="5"/>
+        <v>1815.2191099001111</v>
+      </c>
+      <c r="AJ6" s="20">
+        <f t="shared" si="5"/>
+        <v>1799.1347714198798</v>
+      </c>
+      <c r="AK6" s="20">
+        <f t="shared" si="5"/>
+        <v>1783.2319548506384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="7">
+        <v>7.8090000000000002</v>
+      </c>
+      <c r="P7" s="7">
+        <f>P6-P8</f>
+        <v>14.400000000000006</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" ref="Q7:R7" si="6">Q6-Q8</f>
+        <v>19.116</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="6"/>
+        <v>25.598399999999998</v>
+      </c>
+      <c r="Y7" s="7">
+        <f>SUM(O7:R7)</f>
+        <v>66.923400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="7">
+        <f>O6-O7</f>
+        <v>37.036999999999999</v>
+      </c>
+      <c r="P8" s="7">
+        <f>P6*0.85</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" ref="Q8:R8" si="7">Q6*0.85</f>
+        <v>108.324</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="7"/>
+        <v>145.05759999999998</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>Y6-Y7</f>
+        <v>372.01859999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="7">
+        <v>110.027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="7">
+        <v>102.093</v>
+      </c>
+      <c r="P10" s="7">
+        <f>O10</f>
+        <v>102.093</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" ref="Q10:R10" si="8">P10</f>
+        <v>102.093</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="8"/>
+        <v>102.093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="7">
+        <f>O9+O10</f>
+        <v>212.12</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" ref="P11:R11" si="9">P9+P10</f>
+        <v>102.093</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="9"/>
+        <v>102.093</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="9"/>
+        <v>102.093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="7">
+        <f>O8-O11</f>
+        <v>-175.083</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" ref="P12:R12" si="10">P8-P11</f>
+        <v>-20.493000000000009</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="10"/>
+        <v>6.2309999999999945</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="10"/>
+        <v>42.964599999999976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="7">
+        <f>5.393-7.529-0.277</f>
+        <v>-2.4130000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="7">
+        <f>O12+O13</f>
+        <v>-177.49600000000001</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" ref="P14:R14" si="11">P12+P13</f>
+        <v>-20.493000000000009</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="11"/>
+        <v>6.2309999999999945</v>
+      </c>
+      <c r="R14" s="7">
+        <f t="shared" si="11"/>
+        <v>42.964599999999976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="7">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="7">
+        <f>O14-O15</f>
+        <v>-177.77800000000002</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" ref="P16:R16" si="12">P14-P15</f>
+        <v>-20.493000000000009</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="12"/>
+        <v>6.2309999999999945</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="12"/>
+        <v>42.964599999999976</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="27">
+        <f>O8/O6</f>
+        <v>0.82587075770414309</v>
+      </c>
+      <c r="P18" s="27">
+        <f t="shared" ref="P18:R18" si="13">P8/P6</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q18" s="27">
+        <f t="shared" si="13"/>
+        <v>0.85</v>
+      </c>
+      <c r="R18" s="27">
+        <f t="shared" si="13"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="7">
+        <f>O21-O35</f>
+        <v>673.54899999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="7">
+        <f>765.083+1.275</f>
+        <v>766.35799999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22" s="7">
+        <v>31.504999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" s="7">
+        <v>85.483999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="7">
+        <v>36.558999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="7">
+        <v>34.348999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="7">
+        <v>17.853999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="7">
+        <v>5.9669999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="7">
+        <f>SUM(O21:O28)</f>
+        <v>978.86900000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="7">
+        <v>31.494</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" s="7">
+        <v>71.251000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="7">
+        <f>30.071+321.713</f>
+        <v>351.78400000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="7">
+        <f>5.828+13.233</f>
+        <v>19.061</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="7">
+        <v>92.808999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37" s="7">
+        <v>412.12299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O38" s="7">
+        <f>SUM(O31:O37)</f>
+        <v>978.86899999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O39" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DA17328F-64FB-4DF9-9BE3-2A05593A4F65}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDEC44E-3A9A-47B3-8A31-8E621049E97B}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -915,8 +2238,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
+      <c r="A1" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,15 +2263,15 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -956,65 +2279,45 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="11" t="s">
-        <v>39</v>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1025,87 +2328,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E49619-7317-48A8-BEE2-EDC89FDCB0B3}">
-  <dimension ref="A1:N5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7B130A-B0D6-4EE5-8C86-27298758E817}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="14" width="9.140625" style="9"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22">
-        <v>12.1</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{47222131-8AD3-4163-AFE9-A007369BBA62}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>